--- a/1ClinQ/Data/Результат_Отчет.xlsx
+++ b/1ClinQ/Data/Результат_Отчет.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9773" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12893" uniqueCount="1073">
   <si>
     <t xml:space="preserve">Кредит</t>
   </si>
